--- a/Documents/权限表.xlsx
+++ b/Documents/权限表.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122DFEF4-B71A-44C3-87EC-3373E6CC2505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A23D09-394F-4F36-89E4-E541BFA8FBC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11640" yWindow="-120" windowWidth="11760" windowHeight="20130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,37 +21,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+  <si>
+    <t>PERSONAL_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEACHER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUDENT_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COURSE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1|2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1|2|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1|2|3|4|5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +154,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,14 +185,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -114,30 +245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1B19699-EC85-4CCA-A490-B1FD90D1F036}" name="表1" displayName="表1" ref="A2:G5" totalsRowShown="0">
-  <autoFilter ref="A2:G5" xr:uid="{FF4695E0-10BF-4FA9-9993-5C5175AEF8FB}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1175E38E-F560-4BD5-A284-9F96F543941A}" name="0"/>
-    <tableColumn id="2" xr3:uid="{FF4AF92C-7E1D-44B4-8032-78196778A414}" name="1"/>
-    <tableColumn id="3" xr3:uid="{2B8E1874-2157-48A5-93DA-EE8A9EA3AC06}" name="2"/>
-    <tableColumn id="4" xr3:uid="{766417B4-0BC3-42EE-9E29-FDD34EEF76BB}" name="3"/>
-    <tableColumn id="5" xr3:uid="{0A01B865-4D22-4BC8-822D-2C92D0015E93}" name="4"/>
-    <tableColumn id="6" xr3:uid="{83527464-06CA-4E46-8099-ED7CFC08A909}" name="5"/>
-    <tableColumn id="7" xr3:uid="{0BFFE87A-9A1E-4A49-B8AD-4EEE21F0D291}" name="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,56 +510,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E62EC7-3171-4A2F-8196-1E056ED498D8}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>